--- a/biology/Zoologie/Afroedura/Afroedura.xlsx
+++ b/biology/Zoologie/Afroedura/Afroedura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afroedura est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afroedura est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 34 espèces de ce genre se rencontrent en Afrique australe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 34 espèces de ce genre se rencontrent en Afrique australe.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 décembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 décembre 2022) :
 Afroedura africana (Boulenger, 1888)
 Afroedura amatolica (Hewitt, 1925)
 Afroedura bogerti Loveridge, 1944
 Afroedura broadleyi Jacobsen et al., 2014
-Afroedura donveae Branch et al., 2021[3]
-Afroedura gorongosa Branch et al., 2017[4]
+Afroedura donveae Branch et al., 2021
+Afroedura gorongosa Branch et al., 2017
 Afroedura granitica Jacobsen et al., 2014
 Afroedura haackei (Onderstall, 1984)
 Afroedura halli (Hewitt, 1935)
@@ -565,20 +581,20 @@
 Afroedura multiporis (Hewitt, 1925)
 Afroedura namaquensis (Fitzsimons, 1938)
 Afroedura nivaria (Boulenger, 1894)
-Afroedura otjihipa Conradie et al., 2022[5]
+Afroedura otjihipa Conradie et al., 2022
 Afroedura pienaari Jacobsen et al., 2014
 Afroedura pondolia (Hewitt, 1925)
 Afroedura pongola Jacobsen et al., 2014
-Afroedura praedicta Branch et al., 2021[3]
-Afroedura pundomontana Conradie et al., 2022[5]
+Afroedura praedicta Branch et al., 2021
+Afroedura pundomontana Conradie et al., 2022
 Afroedura rondavelica Jacobsen et al., 2014
 Afroedura rupestris Jacobsen et al., 2014
 Afroedura tembulica (Hewitt, 1926)
 Afroedura tirasensis Haacke, 1965
 Afroedura transvaalica (Hewitt, 1925)
-Afroedura vazpintorum Branch et al., 2021[3]
+Afroedura vazpintorum Branch et al., 2021
 Afroedura waterbergensis Jacobsen et al., 2014
-Afroedura wulfhaackei Branch et al., 2021[3]</t>
+Afroedura wulfhaackei Branch et al., 2021</t>
         </is>
       </c>
     </row>
@@ -606,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Loveridge, 1944 : New geckos of the genera Afroedura, new genus, and Pachydactylus from Angola. American Museum Novitates, no 1254, p. 1-4 (texte intégral).</t>
         </is>
